--- a/Lab8 strategy of testing/Стратегия тестирования Яранцев ВА.xlsx
+++ b/Lab8 strategy of testing/Стратегия тестирования Яранцев ВА.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="139">
   <si>
     <t>Тест-кейсы</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Дефект</t>
-  </si>
-  <si>
-    <t>Обеспечение корректного функционирования разработанного программного продукта - медицинского электронного портала</t>
   </si>
   <si>
     <t>№:</t>
@@ -465,6 +462,12 @@
   </si>
   <si>
     <t>Яранцев В.А</t>
+  </si>
+  <si>
+    <t>Обеспечение корректного функционирования разработанного программного продукта - портала детского сада</t>
+  </si>
+  <si>
+    <t>протестирован,найдена ошибка</t>
   </si>
 </sst>
 </file>
@@ -1102,23 +1105,6 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1137,9 +1123,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1153,19 +1136,39 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1516,7 +1519,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1524,7 +1527,7 @@
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
     <col min="6" max="6" width="60.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1565,7 +1568,7 @@
     <row r="3" spans="1:15" ht="31.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1620,7 +1623,7 @@
     <row r="6" spans="1:15" ht="15">
       <c r="A6" s="1"/>
       <c r="B6" s="29" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1656,7 +1659,7 @@
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1675,7 +1678,7 @@
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="1"/>
       <c r="B9" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1711,38 +1714,38 @@
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="G11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="H11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="I11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="J11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="K11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="L11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="M11" s="31" t="s">
         <v>31</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>32</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1754,21 +1757,21 @@
         <v>1</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33">
         <v>3</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="34">
         <v>0.5</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" s="37"/>
       <c r="K12" s="35"/>
@@ -1784,21 +1787,21 @@
         <v>2</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="40"/>
-      <c r="E13" s="103">
+      <c r="E13" s="90">
         <v>2</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="35">
         <v>0.5</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="42" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="J13" s="37"/>
       <c r="K13" s="35"/>
@@ -1814,21 +1817,21 @@
         <v>3</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40">
         <v>1</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="35">
         <v>0.5</v>
       </c>
       <c r="H14" s="35"/>
-      <c r="I14" s="105" t="s">
-        <v>35</v>
+      <c r="I14" s="92" t="s">
+        <v>138</v>
       </c>
       <c r="J14" s="87"/>
       <c r="K14" s="35"/>
@@ -1844,21 +1847,21 @@
         <v>4</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40">
         <v>1</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="35">
         <v>0.5</v>
       </c>
       <c r="H15" s="35"/>
-      <c r="I15" s="105" t="s">
-        <v>35</v>
+      <c r="I15" s="92" t="s">
+        <v>34</v>
       </c>
       <c r="J15" s="37"/>
       <c r="K15" s="35"/>
@@ -1874,21 +1877,21 @@
         <v>5</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41">
         <v>1</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="35">
         <v>0.5</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16" s="37"/>
       <c r="K16" s="35"/>
@@ -1904,21 +1907,21 @@
         <v>6</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40">
         <v>1</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="35">
         <v>0.5</v>
       </c>
       <c r="H17" s="35"/>
-      <c r="I17" s="104" t="s">
-        <v>35</v>
+      <c r="I17" s="91" t="s">
+        <v>34</v>
       </c>
       <c r="J17" s="37"/>
       <c r="K17" s="35"/>
@@ -1933,21 +1936,21 @@
         <v>7</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="85"/>
       <c r="E18" s="84">
         <v>1</v>
       </c>
       <c r="F18" s="86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="35">
         <v>0.5</v>
       </c>
       <c r="H18" s="35"/>
       <c r="I18" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" s="87"/>
       <c r="K18" s="35"/>
@@ -1959,7 +1962,7 @@
     <row r="19" spans="1:15" ht="15">
       <c r="A19" s="1"/>
       <c r="B19" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="46"/>
       <c r="D19" s="47"/>
@@ -2976,51 +2979,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="112"/>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="52">
         <v>43957</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="53" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="53" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="106" t="s">
-        <v>83</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>82</v>
       </c>
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
@@ -3034,8 +3037,8 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="56"/>
-      <c r="B4" s="107" t="s">
-        <v>84</v>
+      <c r="B4" s="94" t="s">
+        <v>83</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -3049,13 +3052,13 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="56"/>
-      <c r="B5" s="107" t="s">
-        <v>85</v>
+      <c r="B5" s="94" t="s">
+        <v>84</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="56"/>
-      <c r="F5" s="109">
+      <c r="F5" s="96">
         <v>1</v>
       </c>
       <c r="G5" s="59"/>
@@ -3063,17 +3066,17 @@
       <c r="I5" s="56">
         <v>1</v>
       </c>
-      <c r="J5" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="K5" s="106" t="s">
-        <v>47</v>
+      <c r="J5" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="93" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="56"/>
-      <c r="B6" s="107" t="s">
-        <v>86</v>
+      <c r="B6" s="94" t="s">
+        <v>85</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -3087,8 +3090,8 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="56"/>
-      <c r="B7" s="106" t="s">
-        <v>88</v>
+      <c r="B7" s="93" t="s">
+        <v>87</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
@@ -3102,8 +3105,8 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="61"/>
-      <c r="B8" s="108" t="s">
-        <v>89</v>
+      <c r="B8" s="95" t="s">
+        <v>88</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
@@ -3117,8 +3120,8 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="56"/>
-      <c r="B9" s="106" t="s">
-        <v>90</v>
+      <c r="B9" s="93" t="s">
+        <v>89</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
@@ -3132,8 +3135,8 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="56"/>
-      <c r="B10" s="106" t="s">
-        <v>91</v>
+      <c r="B10" s="93" t="s">
+        <v>90</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
@@ -3147,8 +3150,8 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="56"/>
-      <c r="B11" s="106" t="s">
-        <v>92</v>
+      <c r="B11" s="93" t="s">
+        <v>91</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
@@ -3162,8 +3165,8 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="56"/>
-      <c r="B12" s="106" t="s">
-        <v>93</v>
+      <c r="B12" s="93" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
@@ -3177,13 +3180,13 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="56"/>
-      <c r="B13" s="106" t="s">
-        <v>94</v>
+      <c r="B13" s="93" t="s">
+        <v>93</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
-      <c r="F13" s="110">
+      <c r="F13" s="97">
         <v>2</v>
       </c>
       <c r="G13" s="59"/>
@@ -3191,17 +3194,17 @@
       <c r="I13" s="63">
         <v>2</v>
       </c>
-      <c r="J13" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="106" t="s">
-        <v>47</v>
+      <c r="J13" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="93" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="64"/>
-      <c r="B14" s="106" t="s">
-        <v>95</v>
+      <c r="B14" s="93" t="s">
+        <v>94</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
@@ -3215,8 +3218,8 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="56"/>
-      <c r="B15" s="106" t="s">
-        <v>96</v>
+      <c r="B15" s="93" t="s">
+        <v>95</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
@@ -3230,8 +3233,8 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="56"/>
-      <c r="B16" s="106" t="s">
-        <v>97</v>
+      <c r="B16" s="93" t="s">
+        <v>96</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="56"/>
@@ -3245,8 +3248,8 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="64"/>
-      <c r="B17" s="106" t="s">
-        <v>98</v>
+      <c r="B17" s="93" t="s">
+        <v>97</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
@@ -3260,8 +3263,8 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="64"/>
-      <c r="B18" s="106" t="s">
-        <v>99</v>
+      <c r="B18" s="93" t="s">
+        <v>98</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
@@ -3275,8 +3278,8 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="64"/>
-      <c r="B19" s="106" t="s">
-        <v>100</v>
+      <c r="B19" s="93" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
@@ -3290,8 +3293,8 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="64"/>
-      <c r="B20" s="106" t="s">
-        <v>101</v>
+      <c r="B20" s="93" t="s">
+        <v>100</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
@@ -3305,8 +3308,8 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="64"/>
-      <c r="B21" s="106" t="s">
-        <v>102</v>
+      <c r="B21" s="93" t="s">
+        <v>101</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
@@ -4220,114 +4223,114 @@
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="112" t="s">
-        <v>104</v>
+    <row r="1" spans="2:8" ht="12.75">
+      <c r="B1" s="99" t="s">
+        <v>103</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="2:8">
-      <c r="B2" s="113" t="s">
-        <v>105</v>
+    <row r="2" spans="2:8" ht="12.75">
+      <c r="B2" s="119" t="s">
+        <v>104</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="99"/>
+    <row r="3" spans="2:8" ht="12.75">
+      <c r="B3" s="120"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="15">
         <v>1</v>
       </c>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" ht="12.75">
       <c r="B4" s="16"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="17">
         <v>43957</v>
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" ht="12.75">
       <c r="B6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+    </row>
+    <row r="7" spans="2:8" ht="12.75">
       <c r="B7" s="20">
         <v>1</v>
       </c>
-      <c r="C7" s="115" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="114" t="s">
-        <v>112</v>
+      <c r="C7" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>111</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" ht="12.75">
       <c r="B8" s="20">
         <v>2</v>
       </c>
-      <c r="C8" s="114" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="116" t="s">
-        <v>113</v>
+      <c r="C8" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="102" t="s">
+        <v>112</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -4337,14 +4340,14 @@
       <c r="B9" s="20">
         <v>3</v>
       </c>
-      <c r="C9" s="114" t="s">
-        <v>108</v>
+      <c r="C9" s="100" t="s">
+        <v>107</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -4354,14 +4357,14 @@
       <c r="B10" s="20">
         <v>4</v>
       </c>
-      <c r="C10" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="116" t="s">
-        <v>114</v>
+      <c r="C10" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>113</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -4371,16 +4374,16 @@
       <c r="B11" s="20">
         <v>5</v>
       </c>
-      <c r="C11" s="114" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>115</v>
+      <c r="C11" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>114</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="117"/>
+        <v>17</v>
+      </c>
+      <c r="F11" s="103"/>
       <c r="G11" s="22"/>
       <c r="H11" s="20"/>
     </row>
@@ -4388,15 +4391,15 @@
       <c r="B12" s="20">
         <v>6</v>
       </c>
-      <c r="C12" s="114" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119" t="s">
-        <v>118</v>
+      <c r="C12" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105" t="s">
+        <v>117</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22">
@@ -4407,20 +4410,20 @@
       <c r="B13" s="20">
         <v>7</v>
       </c>
-      <c r="C13" s="114" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="114" t="s">
-        <v>117</v>
+      <c r="C13" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="100" t="s">
+        <v>116</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="17" spans="4:6">
+    <row r="17" spans="4:6" ht="12.75">
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
       <c r="F17" s="27"/>
@@ -4457,42 +4460,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5">
-      <c r="B1" s="120" t="s">
-        <v>77</v>
+      <c r="B1" s="106" t="s">
+        <v>76</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="2:8" ht="26.25" customHeight="1">
-      <c r="B2" s="113" t="s">
-        <v>120</v>
+      <c r="B2" s="119" t="s">
+        <v>119</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B3" s="99"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="15">
         <v>2</v>
@@ -4505,7 +4508,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="17">
         <v>43957</v>
@@ -4514,39 +4517,39 @@
     </row>
     <row r="6" spans="2:8" ht="12.75">
       <c r="B6" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="H6" s="58" t="s">
         <v>45</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="12.75">
       <c r="B7" s="20">
         <v>1</v>
       </c>
-      <c r="C7" s="115" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="114" t="s">
-        <v>112</v>
+      <c r="C7" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>111</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -4556,14 +4559,14 @@
       <c r="B8" s="20">
         <v>2</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="114" t="s">
-        <v>122</v>
-      </c>
       <c r="E8" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -4573,14 +4576,14 @@
       <c r="B9" s="20">
         <v>3</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="60" t="s">
-        <v>124</v>
-      </c>
       <c r="E9" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -4590,16 +4593,16 @@
       <c r="B10" s="20">
         <v>4</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>126</v>
-      </c>
       <c r="E10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="117"/>
+        <v>17</v>
+      </c>
+      <c r="F10" s="103"/>
       <c r="G10" s="22"/>
       <c r="H10" s="20"/>
     </row>
@@ -4607,14 +4610,14 @@
       <c r="B11" s="20">
         <v>5</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="114" t="s">
-        <v>128</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -4624,14 +4627,14 @@
       <c r="B12" s="20">
         <v>6</v>
       </c>
-      <c r="C12" s="114" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="114" t="s">
-        <v>122</v>
+      <c r="C12" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>121</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -4641,14 +4644,14 @@
       <c r="B13" s="20">
         <v>7</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="60" t="s">
-        <v>124</v>
-      </c>
       <c r="E13" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -4658,14 +4661,14 @@
       <c r="B14" s="20">
         <v>8</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="60" t="s">
-        <v>126</v>
-      </c>
       <c r="E14" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -4675,15 +4678,15 @@
       <c r="B15" s="20">
         <v>9</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119" t="s">
-        <v>103</v>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105" t="s">
+        <v>102</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22">
@@ -4694,14 +4697,14 @@
       <c r="B16" s="20">
         <v>10</v>
       </c>
-      <c r="C16" s="114" t="s">
-        <v>125</v>
+      <c r="C16" s="100" t="s">
+        <v>124</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -4736,23 +4739,23 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="121" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98"/>
+        <v>103</v>
+      </c>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="66">
         <v>1</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="66">
         <v>1</v>
@@ -4760,27 +4763,27 @@
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="123" t="s">
-        <v>87</v>
+      <c r="D3" s="108" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="68">
         <v>2</v>
@@ -4788,49 +4791,49 @@
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="65" t="s">
-        <v>55</v>
-      </c>
       <c r="D5" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="69">
         <v>43957</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="123" t="s">
-        <v>132</v>
+        <v>56</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75">
       <c r="A7" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="125" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
+        <v>57</v>
+      </c>
+      <c r="B7" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
     </row>
     <row r="8" spans="1:4" ht="283.5" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
+        <v>58</v>
+      </c>
+      <c r="B8" s="123"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="115"/>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="59"/>
@@ -4870,23 +4873,23 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="124" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
+        <v>76</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="66">
         <v>2</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="66">
         <v>2</v>
@@ -4894,27 +4897,27 @@
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="123" t="s">
-        <v>133</v>
+      <c r="D3" s="108" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="68">
         <v>2</v>
@@ -4922,49 +4925,49 @@
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="65" t="s">
-        <v>55</v>
-      </c>
       <c r="D5" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="69">
         <v>43957</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="123" t="s">
-        <v>132</v>
+        <v>56</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75">
       <c r="A7" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="125" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
+        <v>57</v>
+      </c>
+      <c r="B7" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
     </row>
     <row r="8" spans="1:4" ht="409.5" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
+        <v>58</v>
+      </c>
+      <c r="B8" s="123"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="115"/>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="59"/>
@@ -5001,11 +5004,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="126" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="A1" s="125" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
       <c r="F1" s="59"/>
@@ -5018,10 +5021,10 @@
     </row>
     <row r="2" spans="1:12" ht="15">
       <c r="A2" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>61</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -5036,7 +5039,7 @@
     </row>
     <row r="3" spans="1:12" ht="15">
       <c r="A3" s="72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="75">
         <v>43957</v>
@@ -5054,10 +5057,10 @@
     </row>
     <row r="4" spans="1:12" ht="33.75" customHeight="1">
       <c r="A4" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="127" t="s">
-        <v>137</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>136</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
@@ -5100,7 +5103,7 @@
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="76">
         <v>3</v>
@@ -5121,7 +5124,7 @@
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="79">
         <v>3</v>
@@ -5142,7 +5145,7 @@
     </row>
     <row r="9" spans="1:12" ht="15">
       <c r="A9" s="78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="79">
         <v>1</v>
@@ -5163,7 +5166,7 @@
     </row>
     <row r="10" spans="1:12" ht="15">
       <c r="A10" s="78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="79">
         <v>2</v>
@@ -5198,7 +5201,7 @@
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="76">
         <v>2</v>
@@ -5219,7 +5222,7 @@
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="79">
         <v>0</v>
@@ -5240,7 +5243,7 @@
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="79">
         <v>2</v>
@@ -5261,7 +5264,7 @@
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -5282,7 +5285,7 @@
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="79">
         <v>0</v>
@@ -5303,7 +5306,7 @@
     </row>
     <row r="17" spans="1:12" ht="15">
       <c r="A17" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="79">
         <v>0</v>
@@ -5352,7 +5355,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
@@ -5367,20 +5370,20 @@
       <c r="L20" s="59"/>
     </row>
     <row r="21" spans="1:12" ht="14.25">
-      <c r="A21" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
+      <c r="A21" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="2">
